--- a/11.rme.projects/01.salaries/Project_Salary_Totals.xlsx
+++ b/11.rme.projects/01.salaries/Project_Salary_Totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>project</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Algeria Site</t>
+  </si>
+  <si>
+    <t>All RME Projects</t>
   </si>
   <si>
     <t>Application Department</t>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1022,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12537535</v>
+        <v>12774160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1062,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1852941.09</v>
+        <v>1967960.34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1078,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17139437.32</v>
+        <v>17717760.34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1086,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>8022978.11</v>
+        <v>2516510936.76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1094,7 +1097,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>21427891.69</v>
+        <v>8022978.11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1102,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3052091.36</v>
+        <v>21427891.69</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1110,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>7824738.74</v>
+        <v>3052091.36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1118,7 +1121,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>26604362.09</v>
+        <v>8733781.300000001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1126,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3044777.56</v>
+        <v>26672001.77</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1134,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>269773.42</v>
+        <v>3297531.6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1142,7 +1145,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>20989800.39</v>
+        <v>269773.42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1150,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>184205.11</v>
+        <v>20989800.39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1158,7 +1161,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2426080.72</v>
+        <v>184205.11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1166,7 +1169,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12479440.76</v>
+        <v>2426080.72</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1174,7 +1177,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>423284.24</v>
+        <v>13373664.96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1182,7 +1185,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>20434635.74</v>
+        <v>423284.24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1190,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>585497.47</v>
+        <v>20434635.74</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1198,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>15078051.91</v>
+        <v>585497.47</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1206,7 +1209,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>16304192.51</v>
+        <v>15487745.05</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1214,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>736239.84</v>
+        <v>16304192.51</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1222,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>15382363.68</v>
+        <v>736239.84</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1230,7 +1233,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5940647.060000001</v>
+        <v>15542172.31</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1238,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>9235696.189999999</v>
+        <v>5940647.060000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1246,7 +1249,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11346087.55</v>
+        <v>9235696.189999999</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1254,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2950606.94</v>
+        <v>11346087.55</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1262,7 +1265,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2346489.62</v>
+        <v>2950606.94</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1270,7 +1273,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>415616.1</v>
+        <v>2346489.62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1278,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>82361.97</v>
+        <v>415616.1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1286,7 +1289,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>22370033.02</v>
+        <v>82361.97</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1294,7 +1297,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>25241537.82</v>
+        <v>22694952.99</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1302,7 +1305,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>713616.15</v>
+        <v>25602694.53</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1310,7 +1313,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>514855.66</v>
+        <v>713616.15</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1318,7 +1321,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>62045996.27</v>
+        <v>514855.66</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1326,7 +1329,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>6105271.79</v>
+        <v>62045996.27</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1334,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>21194529.99</v>
+        <v>6105271.79</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1342,7 +1345,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2262246.97</v>
+        <v>21194529.99</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1350,7 +1353,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>44142742.71</v>
+        <v>2262246.97</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1358,7 +1361,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3351843.31</v>
+        <v>44142742.71</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1366,7 +1369,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>18369073.42</v>
+        <v>3351843.31</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1374,7 +1377,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>9913648.43</v>
+        <v>18369073.42</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1382,7 +1385,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>5443523.99</v>
+        <v>9913648.43</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1390,7 +1393,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2615919.15</v>
+        <v>5443523.99</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1398,7 +1401,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>689126.37</v>
+        <v>2615919.15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1406,7 +1409,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2857404.12</v>
+        <v>689126.37</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1414,7 +1417,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>16254838.36</v>
+        <v>2857404.12</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1422,7 +1425,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>14151785.65</v>
+        <v>16254838.36</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1430,7 +1433,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2800667.32</v>
+        <v>14339696.41</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1438,7 +1441,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>60553161.37</v>
+        <v>2800667.32</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1446,7 +1449,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2116365.94</v>
+        <v>61475182.69</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1454,7 +1457,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>647945.5</v>
+        <v>2116365.94</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1462,7 +1465,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>39605088.23</v>
+        <v>647945.5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1470,7 +1473,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>15080597.69</v>
+        <v>40219327.71</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1478,7 +1481,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5361573.4</v>
+        <v>15080597.69</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1486,7 +1489,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>43520739.1</v>
+        <v>5438897.81</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1494,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>487217.29</v>
+        <v>44121425.56</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1502,7 +1505,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>32919120.11</v>
+        <v>487217.29</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1510,7 +1513,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>311431.4</v>
+        <v>33526712.62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1518,7 +1521,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6201952.39</v>
+        <v>311431.4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1526,7 +1529,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>17005426.63</v>
+        <v>6201952.39</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1534,7 +1537,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>16890111.85</v>
+        <v>17005426.63</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1542,7 +1545,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>15121649.3</v>
+        <v>17060367.09</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1550,7 +1553,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>2187486.11</v>
+        <v>15121649.3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1558,7 +1561,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1365637.2</v>
+        <v>2187486.11</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1566,7 +1569,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1298173.08</v>
+        <v>1394228.08</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1574,7 +1577,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>780510.6699999999</v>
+        <v>1298173.08</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1582,7 +1585,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>23778724.16</v>
+        <v>780510.6699999999</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1590,7 +1593,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3767625.31</v>
+        <v>24107114.73</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1598,7 +1601,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1407268.76</v>
+        <v>3767625.31</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1606,7 +1609,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>6584350.59</v>
+        <v>1407268.76</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1614,7 +1617,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>333500.09</v>
+        <v>6584350.59</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1622,7 +1625,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>12157959.22</v>
+        <v>333500.09</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1630,7 +1633,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1127899.58</v>
+        <v>12346071.27</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1638,7 +1641,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>302659.9</v>
+        <v>1127899.58</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1646,7 +1649,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>6303462.1</v>
+        <v>302659.9</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1654,7 +1657,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>49197733.01</v>
+        <v>6303462.1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1662,7 +1665,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>75537372.08</v>
+        <v>49197733.01</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1670,7 +1673,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>4214702.68</v>
+        <v>79355637.98</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1678,7 +1681,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>358721.43</v>
+        <v>4214702.68</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1686,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>8105819.96</v>
+        <v>358721.43</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1694,7 +1697,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>6649231.58</v>
+        <v>8105819.96</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1702,7 +1705,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>24222785.72</v>
+        <v>6746305.13</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1710,7 +1713,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>7063671.04</v>
+        <v>24222785.72</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1718,7 +1721,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>29168167.72</v>
+        <v>7337701.76</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1726,7 +1729,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1717253.81</v>
+        <v>29168167.72</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1734,7 +1737,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3662622.84</v>
+        <v>1717253.81</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1742,7 +1745,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2295643.65</v>
+        <v>4029420.7</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1750,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>36280189.29</v>
+        <v>2295643.65</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1758,7 +1761,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>984088.51</v>
+        <v>36280189.29</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1766,7 +1769,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>425635.61</v>
+        <v>984088.51</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1774,7 +1777,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>6110584.24</v>
+        <v>425635.61</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1782,7 +1785,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>16958363.69</v>
+        <v>6110584.24</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1790,7 +1793,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>10371657.3</v>
+        <v>17405280.5</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1798,7 +1801,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>119461438.26</v>
+        <v>10488396.22</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1806,7 +1809,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>3681125.36</v>
+        <v>122432395.06</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1814,7 +1817,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1088824.93</v>
+        <v>4281526.44</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1822,7 +1825,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>14321974.57</v>
+        <v>1088824.93</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1830,7 +1833,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>13648930.51</v>
+        <v>14321974.57</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1838,7 +1841,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>7229669.8</v>
+        <v>13648930.51</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1846,7 +1849,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>904031.77</v>
+        <v>7321867.13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1854,7 +1857,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>23289330.75</v>
+        <v>904031.77</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1862,7 +1865,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>7044813.43</v>
+        <v>23289330.75</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1870,7 +1873,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>304860.7</v>
+        <v>7054249.2</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1878,7 +1881,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>3047494.42</v>
+        <v>304860.7</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1886,7 +1889,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>52668205.12</v>
+        <v>3047494.42</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1894,7 +1897,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>396070.13</v>
+        <v>52668205.12</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1902,7 +1905,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>26376892.58</v>
+        <v>396070.13</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1910,7 +1913,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>26202724.62</v>
+        <v>26644533.62</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1918,7 +1921,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2693309.07</v>
+        <v>26748078.89</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1926,7 +1929,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>4144933.74</v>
+        <v>2822317.27</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1934,7 +1937,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>6142557.37</v>
+        <v>4510971.49</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1942,7 +1945,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>293361.11</v>
+        <v>6142557.37</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1950,7 +1953,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>1405217.47</v>
+        <v>293361.11</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1958,7 +1961,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>12664791.93</v>
+        <v>1405217.47</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1966,7 +1969,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>12661944.12</v>
+        <v>12664791.93</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1974,7 +1977,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>36097842.17</v>
+        <v>12661944.12</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1982,7 +1985,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>26837.07</v>
+        <v>36568704.57</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1990,7 +1993,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>-18781.92</v>
+        <v>26837.07</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1998,7 +2001,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>22491980.26</v>
+        <v>-18781.92</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2006,7 +2009,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>4547423.55</v>
+        <v>22973894.4</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2014,7 +2017,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>6399668.48</v>
+        <v>4547423.55</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2022,7 +2025,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>148179485.73</v>
+        <v>6429925.63</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2030,7 +2033,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>5687079.21</v>
+        <v>149544273.85</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2038,7 +2041,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>1021052.13</v>
+        <v>5687079.21</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2046,7 +2049,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>2994613.94</v>
+        <v>1021052.13</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2054,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>4924145.68</v>
+        <v>2994613.94</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2062,7 +2065,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>15783285.31</v>
+        <v>4924145.68</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2070,7 +2073,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>374075.89</v>
+        <v>15783285.31</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2078,7 +2081,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>23630678.61</v>
+        <v>374075.89</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2086,7 +2089,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>38470258.95</v>
+        <v>23630678.61</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2094,7 +2097,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>39573794.03</v>
+        <v>40634025.6</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2102,7 +2105,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>14816466.3</v>
+        <v>41262258.49</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2110,7 +2113,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>1725449.45</v>
+        <v>16385209.42</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2118,7 +2121,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>201885429.87</v>
+        <v>1725449.45</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2126,7 +2129,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>2262914.27</v>
+        <v>201885429.87</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2134,7 +2137,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>203614.69</v>
+        <v>2262914.27</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2142,7 +2145,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>1017688.19</v>
+        <v>203614.69</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2150,7 +2153,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>68655.78999999999</v>
+        <v>1017688.19</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2158,7 +2161,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>12525452.83</v>
+        <v>68655.78999999999</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2166,7 +2169,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>37235234.76</v>
+        <v>13314039.79</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2174,7 +2177,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>648745.63</v>
+        <v>37235234.76</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2182,7 +2185,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>23344791.55</v>
+        <v>648745.63</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2190,7 +2193,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>473639.47</v>
+        <v>23344791.55</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2198,7 +2201,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>7829229.98</v>
+        <v>473639.47</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2206,7 +2209,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>8436998.92</v>
+        <v>8598295.02</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2214,7 +2217,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>3324391.07</v>
+        <v>8818466.48</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2222,7 +2225,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>2177223.52</v>
+        <v>3400201.49</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2230,7 +2233,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>730608.22</v>
+        <v>2177223.52</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2238,7 +2241,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>5976564.359999999</v>
+        <v>730608.22</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2246,7 +2249,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>5181732.62</v>
+        <v>5976564.359999999</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2254,7 +2257,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>182251.18</v>
+        <v>5261233.1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2262,7 +2265,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>170727.66</v>
+        <v>182251.18</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2270,7 +2273,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>593080.11</v>
+        <v>170727.66</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2278,7 +2281,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>6750688.54</v>
+        <v>658699.46</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2286,7 +2289,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>793510.75</v>
+        <v>7388205.79</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2294,7 +2297,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>18390393.57</v>
+        <v>793510.75</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2302,7 +2305,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>11390227.17</v>
+        <v>18631435.9</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2310,7 +2313,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>4004967.13</v>
+        <v>11479854.77</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2318,7 +2321,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>63689754.89</v>
+        <v>4389991.84</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2326,7 +2329,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>998613.27</v>
+        <v>64411116.01</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2334,7 +2337,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>703453.59</v>
+        <v>998613.27</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2342,7 +2345,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>11250254.3</v>
+        <v>703453.59</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2350,7 +2353,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>1019225.78</v>
+        <v>11250254.3</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2358,7 +2361,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>2378253.9</v>
+        <v>1019225.78</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2366,7 +2369,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>2378253.9</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2374,7 +2377,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>792751.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2382,7 +2385,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>6868359.28</v>
+        <v>792751.3</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2390,7 +2393,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>226921.09</v>
+        <v>6868359.28</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2398,7 +2401,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>26347444.96</v>
+        <v>226921.09</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2406,7 +2409,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>2607064.31</v>
+        <v>27173131.53</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2414,7 +2417,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>2984040.93</v>
+        <v>2701627.08</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2422,7 +2425,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>5143372.36</v>
+        <v>2984040.93</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2430,7 +2433,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>18008056.64</v>
+        <v>5143372.36</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2438,7 +2441,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>11959820.74</v>
+        <v>18249917.06</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2446,7 +2449,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>51626073.15</v>
+        <v>11959820.74</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2454,7 +2457,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>17088674.31</v>
+        <v>51626073.15</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2462,7 +2465,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>978393.51</v>
+        <v>17088674.31</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2470,7 +2473,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>182139.81</v>
+        <v>978393.51</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2478,6 +2481,14 @@
         <v>191</v>
       </c>
       <c r="B191">
+        <v>182139.81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
         <v>2288808.55</v>
       </c>
     </row>
